--- a/Document/枕返し_オブジェクト仕様書.xlsx
+++ b/Document/枕返し_オブジェクト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A0C5E-9CE8-4DFB-B026-84AAF0D6F146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1841AA8D-2E69-4857-9320-CB7935F113FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B2947319-BD6E-4251-98D6-BDF255DD22D0}"/>
+    <workbookView xWindow="204" yWindow="372" windowWidth="17340" windowHeight="11856" activeTab="2" xr2:uid="{B2947319-BD6E-4251-98D6-BDF255DD22D0}"/>
   </bookViews>
   <sheets>
     <sheet name="更新記録（自分用）" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>エネミーA（寝ている人）</t>
     <rPh sb="6" eb="7">
@@ -612,6 +612,234 @@
     <t>危険範囲</t>
     <rPh sb="0" eb="4">
       <t>キケンハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り塩</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛け軸</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが
+子ども姿の時</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人姿になる</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子どもの時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人の時</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子ども姿になる</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※返すボタンチョン押し</t>
+    <rPh sb="1" eb="2">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家の出入りを
+できなくする</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対にNG</t>
+    <rPh sb="0" eb="2">
+      <t>ゼッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要検証</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り塩+掛け軸</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※2つ含む時点でNG</t>
+    <rPh sb="3" eb="4">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤子+盛り塩+重枕</t>
+    <rPh sb="0" eb="2">
+      <t>アカゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オモマクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤子+盛り塩+破魔矢</t>
+    <rPh sb="0" eb="2">
+      <t>アカゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ハマヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り塩+重枕+破魔矢</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ハマヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメな組み合わせ</t>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り塩と掛け軸の条件&amp;動作追加</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤバい組み合わせを追加</t>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -620,7 +848,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,8 +864,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +902,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,34 +1093,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,12 +1137,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1784,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CBD5C4-7D68-4D36-A476-B9D9EF0E61F9}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1863,6 +2112,16 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1873,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C07015-AA1F-4A5D-85C0-DE2EAA3CF3CA}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1886,10 +2145,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
@@ -1901,7 +2160,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1912,7 +2171,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
@@ -1986,10 +2245,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
@@ -2044,16 +2303,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF414270-F6C7-4592-8255-6A0AB2478A5F}">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="22.296875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
@@ -2097,7 +2356,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
@@ -2105,90 +2364,181 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="4" t="s">
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+    <row r="16" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>40</v>
+      <c r="B18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="26" t="s">
+    <row r="20" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="27"/>
-      <c r="C21" s="15" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="28"/>
+      <c r="C30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D30" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="29" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/枕返し_オブジェクト仕様書.xlsx
+++ b/Document/枕返し_オブジェクト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A0C5E-9CE8-4DFB-B026-84AAF0D6F146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC471602-B35F-4819-8C0B-71B19AF0AF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B2947319-BD6E-4251-98D6-BDF255DD22D0}"/>
+    <workbookView xWindow="204" yWindow="372" windowWidth="17340" windowHeight="11856" xr2:uid="{B2947319-BD6E-4251-98D6-BDF255DD22D0}"/>
   </bookViews>
   <sheets>
     <sheet name="更新記録（自分用）" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>エネミーA（寝ている人）</t>
     <rPh sb="6" eb="7">
@@ -612,6 +612,277 @@
     <t>危険範囲</t>
     <rPh sb="0" eb="4">
       <t>キケンハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り塩</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛け軸</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが
+子ども姿の時</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人姿になる</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子どもの時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人の時</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子ども姿になる</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※返すボタンチョン押し</t>
+    <rPh sb="1" eb="2">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家の出入りを
+できなくする</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対にNG</t>
+    <rPh sb="0" eb="2">
+      <t>ゼッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要検証</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り塩+掛け軸</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※2つ含む時点でNG</t>
+    <rPh sb="3" eb="4">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤子+盛り塩+重枕</t>
+    <rPh sb="0" eb="2">
+      <t>アカゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オモマクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤子+盛り塩+破魔矢</t>
+    <rPh sb="0" eb="2">
+      <t>アカゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ハマヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り塩+重枕+破魔矢</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ハマヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメな組み合わせ</t>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り塩と掛け軸の条件&amp;動作追加</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤバい組み合わせを追加</t>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通行不可</t>
+    <rPh sb="0" eb="2">
+      <t>ツウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※壁と同じタイルとして使う</t>
+    <rPh sb="1" eb="2">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家具の項目を追加</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -620,7 +891,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,8 +907,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +945,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +1078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,35 +1136,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,12 +1180,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1784,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CBD5C4-7D68-4D36-A476-B9D9EF0E61F9}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1863,6 +2155,24 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
+        <v>44860</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1873,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C07015-AA1F-4A5D-85C0-DE2EAA3CF3CA}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1886,10 +2196,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
@@ -1901,7 +2211,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1912,7 +2222,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
@@ -1986,10 +2296,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
@@ -2044,16 +2354,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF414270-F6C7-4592-8255-6A0AB2478A5F}">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="22.296875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
@@ -2097,7 +2405,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
@@ -2105,90 +2413,205 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="4" t="s">
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+    <row r="16" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>40</v>
+      <c r="B18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="26" t="s">
+    <row r="20" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="27"/>
-      <c r="C21" s="15" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="30"/>
+      <c r="C30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D30" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/枕返し_オブジェクト仕様書.xlsx
+++ b/Document/枕返し_オブジェクト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC471602-B35F-4819-8C0B-71B19AF0AF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D9202A-2AEE-493B-B719-078910461EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="372" windowWidth="17340" windowHeight="11856" xr2:uid="{B2947319-BD6E-4251-98D6-BDF255DD22D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2947319-BD6E-4251-98D6-BDF255DD22D0}"/>
   </bookViews>
   <sheets>
     <sheet name="更新記録（自分用）" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>エネミーA（寝ている人）</t>
     <rPh sb="6" eb="7">
@@ -378,29 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※Aは頭（枕）中心の円形
-　Bは正面に扇形</t>
-    <rPh sb="3" eb="4">
-      <t>アタマ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マクラ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エンケイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>オウギガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>灯を危険範囲に変更</t>
     <rPh sb="0" eb="1">
       <t>アカリ</t>
@@ -581,16 +558,6 @@
       <t>オ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いびきが止まった状態（仮）</t>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -883,6 +850,55 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Aは頭（枕）中心の円形
+　Bは持ってる灯中心の円形</t>
+    <rPh sb="3" eb="4">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アカリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起きそうな状態（仮）</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーAとBの危険範囲微修正</t>
+    <rPh sb="8" eb="12">
+      <t>キケンハンイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ビシュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1271,14 +1287,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
@@ -1295,8 +1311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3413760" y="2522220"/>
-          <a:ext cx="2042160" cy="1127760"/>
+          <a:off x="6454140" y="2522220"/>
+          <a:ext cx="2103120" cy="1127760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,13 +1355,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1363,8 +1379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10149840" y="464820"/>
-          <a:ext cx="2011680" cy="1135380"/>
+          <a:off x="3413760" y="2522220"/>
+          <a:ext cx="2369820" cy="1135380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,14 +1559,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19808</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>54114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>281032</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>547732</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -1592,14 +1608,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1004</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>84824</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>44755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>583918</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>401038</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
@@ -1629,7 +1645,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7125704" y="2559355"/>
+          <a:off x="3498584" y="2559355"/>
           <a:ext cx="2015474" cy="1052525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2076,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CBD5C4-7D68-4D36-A476-B9D9EF0E61F9}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2124,17 +2140,17 @@
         <v>44853</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
@@ -2142,27 +2158,27 @@
         <v>44855</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
@@ -2170,7 +2186,15 @@
         <v>44860</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
+        <v>44862</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2208,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2256,18 +2280,18 @@
         <v>32</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -2324,15 +2348,15 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2356,12 +2380,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF414270-F6C7-4592-8255-6A0AB2478A5F}">
   <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
@@ -2413,13 +2439,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="13" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
@@ -2451,15 +2477,15 @@
         <v>13</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -2472,15 +2498,15 @@
     </row>
     <row r="20" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B20" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -2493,21 +2519,21 @@
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -2515,7 +2541,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -2528,27 +2554,27 @@
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
         <v>41</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" s="30"/>
       <c r="C30" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
@@ -2559,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
@@ -2567,45 +2593,45 @@
         <v>9</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
